--- a/outputs/protocol_summary.xlsx
+++ b/outputs/protocol_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,32 +604,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>70.9</t>
+          <t>71.2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24.5</t>
+          <t>25.2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>39.3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -654,48 +654,1052 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2258</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>141</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>51</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>214</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>7.40</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>25.1</t>
+          <t>25.2</t>
         </is>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>71.2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>24.3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.6</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>70.3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>70.6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>51.7</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2736</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>70.9</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>51.3</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2173</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>71.6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2177</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2139</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>70.9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>51.8</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>39.5</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2258</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>7h 24m</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>71.2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>51.3</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2255</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>72.1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.3</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2432</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>6342</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/protocol_summary.xlsx
+++ b/outputs/protocol_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1701,6 +1701,406 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>72.1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>51.3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2364</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>12564</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>71.4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>23.1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>8548</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>OL</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2478</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>10105</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>OL</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2260</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>7410</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>OL</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/protocol_summary.xlsx
+++ b/outputs/protocol_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,82 +529,108 @@
           <t>bmi</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>carbs</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>fat</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>protein</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-08-23</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>72.1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>71.2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1670</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>328</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>124</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>25.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -614,117 +640,114 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>39.1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>25.2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>39.3</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1959</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>214</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>25.2</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>71.2</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>25.8</t>
+          <t>24.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>39.1</t>
+          <t>39.6</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -754,22 +777,22 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>129</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>88</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>153</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -794,42 +817,39 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>25.2</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+          <t>24.8</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>70.3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>24.3</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>39.6</t>
+          <t>39.7</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -854,22 +874,22 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>144</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>154</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -897,39 +917,36 @@
           <t>24.8</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>70.3</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>51.7</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>39.7</t>
+          <t>39.5</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -954,22 +971,22 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2736</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>159</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>131</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>214</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -994,37 +1011,34 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>24.8</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+          <t>25</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24.8</t>
+          <t>25.6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>51.7</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1054,22 +1068,22 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2736</t>
+          <t>2173</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>184</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>84</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>156</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1094,32 +1108,29 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+          <t>25.1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>70.9</t>
+          <t>71.6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>25.6</t>
+          <t>25.5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1129,7 +1140,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1154,22 +1165,22 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2173</t>
+          <t>2177</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>97</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>106</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>224</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1194,42 +1205,39 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>25.1</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+          <t>25.3</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>71.6</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>25.5</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>None</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1254,22 +1262,22 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2177</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>108</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>187</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1294,42 +1302,39 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>25.3</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>24.5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>39.5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1354,32 +1359,32 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2139</t>
+          <t>2258</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>157</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>84</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>184</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>101</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>7h 24m</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1389,47 +1394,44 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+          <t>25.1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>70.9</t>
+          <t>71.2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>24.5</t>
+          <t>25.5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1454,7 +1456,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2258</t>
+          <t>2255</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1474,12 +1476,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>102</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>7h 24m</t>
+          <t>438</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1489,122 +1491,116 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>25.1</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
+          <t>25.2</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>71.2</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.3</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2432</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>6342</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>25.5</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>39.2</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2255</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>438</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>25.2</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1614,17 +1610,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>25.3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>39.3</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1654,22 +1650,22 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2432</t>
+          <t>2364</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>192</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>64</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>232</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1679,12 +1675,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>444</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>6342</t>
+          <t>12564</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1697,139 +1693,133 @@
           <t>25.5</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>23.1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>8548</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>OL</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>25.3</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>39.2</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2364</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>12564</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>25.5</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>23.1</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>39.9</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>None</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1854,37 +1844,37 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>2478</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>151</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>130</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>129</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>502</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>8548</t>
+          <t>10105</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1894,17 +1884,14 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>25.3</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1954,22 +1941,22 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2478</t>
+          <t>2260</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>175</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>83</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>197</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1979,12 +1966,12 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>435</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>10105</t>
+          <t>7410</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1997,109 +1984,6 @@
           <t>None</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-11-02</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2260</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>7410</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>OL</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/protocol_summary.xlsx
+++ b/outputs/protocol_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>bmi</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -626,6 +631,7 @@
           <t>25.2</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -723,6 +729,7 @@
           <t>25.2</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -820,6 +827,7 @@
           <t>24.8</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -917,6 +925,7 @@
           <t>24.8</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1014,6 +1023,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1111,6 +1121,7 @@
           <t>25.1</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1208,6 +1219,7 @@
           <t>25.3</t>
         </is>
       </c>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1305,6 +1317,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1402,6 +1415,7 @@
           <t>25.1</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1499,6 +1513,7 @@
           <t>25.2</t>
         </is>
       </c>
+      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1596,6 +1611,7 @@
           <t>25.5</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1693,6 +1709,7 @@
           <t>25.5</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1790,6 +1807,7 @@
           <t>25.3</t>
         </is>
       </c>
+      <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1869,7 +1887,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>8h 22m</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1887,6 +1905,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1936,52 +1955,755 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2260</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>7h 15m</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>10188</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>OL</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>71.5</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>51.3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.2</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2246</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>7h 15m</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>7320</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>71.5</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>39.1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>240</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2260</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>7410</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>OL</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2426</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>6h 27m</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2442</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>8h 25m</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>71.9</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>39.3</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2140</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2397</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>7h 30m</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>9622</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>25.4</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>23.4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>39.7</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2140</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2354</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>5h 5m</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>9103</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Trainingsfrei</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>71.4</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.3</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2240</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2337</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>7h 34m</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>12810</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2140</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2175</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>8h 2m</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>9605</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>False</t>
         </is>
       </c>
     </row>

--- a/outputs/protocol_summary.xlsx
+++ b/outputs/protocol_summary.xlsx
@@ -613,17 +613,17 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>8h 20m</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>10502</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -631,7 +631,11 @@
           <t>25.2</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -711,17 +715,17 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>6h 35m</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>10170</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -729,7 +733,11 @@
           <t>25.2</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -809,17 +817,17 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>7h 10m</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>9329</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -827,7 +835,11 @@
           <t>24.8</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -907,17 +919,17 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>6h 53m</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>10639</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -925,7 +937,11 @@
           <t>24.8</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1005,17 +1021,17 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>5h 55m</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>9875</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1023,7 +1039,11 @@
           <t>25</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1103,17 +1123,17 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>4h 37m</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>9930</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1121,7 +1141,11 @@
           <t>25.1</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1201,17 +1225,17 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>7h 13m</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>7258</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Wü</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1219,7 +1243,11 @@
           <t>25.3</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1299,17 +1327,17 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>7h 50m</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>11970</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Wü</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1317,7 +1345,11 @@
           <t>None</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1402,7 +1434,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>11803</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1415,7 +1447,11 @@
           <t>25.1</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1495,17 +1531,17 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>7h 18m</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>6779</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1513,7 +1549,11 @@
           <t>25.2</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1593,7 +1633,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>5h 26m</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1603,7 +1643,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1611,7 +1651,11 @@
           <t>25.5</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1691,7 +1735,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>7h 24m</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1701,7 +1745,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1709,7 +1753,11 @@
           <t>25.5</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1789,7 +1837,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>5h 33 m</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1807,7 +1855,11 @@
           <t>25.3</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1905,7 +1957,11 @@
           <t>None</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2003,7 +2059,11 @@
           <t>None</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2101,7 +2161,11 @@
           <t>25.3</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2186,7 +2250,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>9684</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2199,7 +2263,11 @@
           <t>25.3</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2289,7 +2357,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2391,7 +2459,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Home &amp; A</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2401,7 +2469,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2561,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Trainingsfrei</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2501,7 +2569,11 @@
           <t>25.5</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2703,7 +2775,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>None</t>
         </is>
       </c>
     </row>
